--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{957022E5-2DF0-4C52-9619-6D79B59EF968}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1B472ABD-62F4-4567-8559-2D72D15428F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Name of project</t>
   </si>
@@ -211,6 +211,39 @@
   </si>
   <si>
     <t>Test in progress!</t>
+  </si>
+  <si>
+    <t>dsadsd</t>
+  </si>
+  <si>
+    <t>Planning Meetup</t>
+  </si>
+  <si>
+    <t>For Data Scientists and Stakeholders</t>
+  </si>
+  <si>
+    <t>Share, learn and have fun!</t>
+  </si>
+  <si>
+    <t>Grimross</t>
+  </si>
+  <si>
+    <t>600 Bishop Drive, Fredericton, NB E3C 0B4</t>
+  </si>
+  <si>
+    <t>This is where we'll be</t>
+  </si>
+  <si>
+    <t>Where we hang out and talk about Data Science stuff around large electrical wire spools</t>
+  </si>
+  <si>
+    <t>Meet &amp; Greet</t>
+  </si>
+  <si>
+    <t>Ideation</t>
+  </si>
+  <si>
+    <t>first event</t>
   </si>
 </sst>
 </file>
@@ -375,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,6 +475,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:R20"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,6 +2576,11 @@
       </c>
       <c r="R20" s="2"/>
     </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2544,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +2717,7 @@
         <v>-66.646791899999997</v>
       </c>
       <c r="P4" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="22">
         <v>43252</v>
@@ -2736,24 +2783,52 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="23"/>
+      <c r="K6" s="22">
+        <v>43263</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="21">
+        <v>45.941000000000003</v>
+      </c>
+      <c r="O6" s="21">
+        <v>-66.67</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>43259</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
@@ -3258,15 +3333,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3439,13 +3515,27 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="43">
+        <v>3</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -3455,7 +3545,9 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="15"/>
+      <c r="R6" s="40" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="35"/>
@@ -3828,7 +3920,7 @@
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,10 +3974,18 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="38">
+        <v>45.941000000000003</v>
+      </c>
+      <c r="E6" s="40">
+        <v>-66.674000000000007</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1B472ABD-62F4-4567-8559-2D72D15428F4}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3CF078DC-2DB9-420C-9673-A8B45C227731}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>This is where we'll be</t>
   </si>
   <si>
-    <t>Where we hang out and talk about Data Science stuff around large electrical wire spools</t>
-  </si>
-  <si>
     <t>Meet &amp; Greet</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>first event</t>
+  </si>
+  <si>
+    <t>Where we hang out and talk about Data Science stuff around large electrical wire spools!</t>
   </si>
 </sst>
 </file>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>57</v>
@@ -3525,7 +3525,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="42">
         <v>0.72916666666666663</v>
@@ -3534,7 +3534,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3546,7 +3546,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3CF078DC-2DB9-420C-9673-A8B45C227731}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1A0CEE6E-51F4-4CE7-BBDA-5FCC3C5A0B7C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Name of project</t>
   </si>
@@ -251,7 +251,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -415,13 +415,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -477,13 +475,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2591,20 +2593,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="H2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -2622,707 +2625,710 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+    <row r="4" spans="2:18" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22">
+      <c r="J4" s="19"/>
+      <c r="K4" s="20">
         <v>43265</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="24" t="str">
-        <f t="shared" ref="M4:O5" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
+      <c r="M4" s="22" t="str">
+        <f t="shared" ref="M4:O6" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="43">
         <f t="shared" si="0"/>
         <v>45.962948900000001</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="43">
         <f t="shared" si="0"/>
         <v>-66.646791899999997</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="19">
         <v>0</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="20">
         <v>43252</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
+    <row r="5" spans="2:18" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="19" t="str">
         <f>D4&amp;" 2"</f>
         <v>A Planning Get Together 2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="str">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="str">
         <f t="shared" ref="F5:I5" si="1">F4&amp;" 2"</f>
         <v>Data science practitioners in greater Fredericton area get together and communicate! 2</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="19" t="str">
         <f t="shared" ref="G5" si="2">G4&amp;" 2"</f>
         <v>Please join us! 2</v>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Have fun! 2</v>
       </c>
-      <c r="I5" s="21" t="str">
+      <c r="I5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Test in progress! 2</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22">
+      <c r="J5" s="19"/>
+      <c r="K5" s="20">
         <v>43265</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="24" t="str">
+      <c r="M5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="43">
         <f t="shared" si="0"/>
         <v>45.962948900000001</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="43">
         <f t="shared" si="0"/>
         <v>-66.646791899999997</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="19">
         <v>0</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>43252</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20">
         <v>43263</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="21">
-        <v>45.941000000000003</v>
-      </c>
-      <c r="O6" s="21">
-        <v>-66.67</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="M6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>600 Bishop Drive, Fredericton, NB E3C 0B4</v>
+      </c>
+      <c r="N6" s="43">
+        <f t="shared" si="0"/>
+        <v>45.940905999999998</v>
+      </c>
+      <c r="O6" s="43">
+        <f t="shared" si="0"/>
+        <v>-66.673703000000003</v>
+      </c>
+      <c r="P6" s="19">
         <v>1</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>43259</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="21"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="21"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="21"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="21"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="21"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="21"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="21"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3359,93 +3365,93 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>0.75</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>0.79166666666666663</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="27">
         <v>0.83333333333333337</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="27">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <v>0.875</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>0.875</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="27">
         <v>0.91666666666666663</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -3454,19 +3460,19 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <f>C4</f>
         <v>0.75</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <f t="shared" ref="D5:J5" si="0">D4</f>
         <v>0.79166666666666663</v>
       </c>
@@ -3474,11 +3480,11 @@
         <f>E4</f>
         <v>Drink and talk</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
@@ -3486,11 +3492,11 @@
         <f>H4</f>
         <v>Drink and talk</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="27">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
@@ -3498,10 +3504,10 @@
         <f>K4</f>
         <v>Drink and talk</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <v>0.875</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="27">
         <v>0.91666666666666663</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -3510,405 +3516,405 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>3</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="39">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="39">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="39">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="40" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="15"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="15"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="15"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="15"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="15"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="15"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="15"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="15"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="15"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="15"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="15"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="15"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="15"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="15"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="15"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="15"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3919,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,268 +3934,269 @@
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="6">
+      <c r="D4" s="41">
         <v>45.964993</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="42">
         <v>-66.646332000000001</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="41">
         <v>45.962948900000001</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="42">
         <v>-66.646791899999997</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="38">
-        <v>45.941000000000003</v>
-      </c>
-      <c r="E6" s="40">
-        <v>-66.674000000000007</v>
+      <c r="D6" s="41">
+        <v>45.940905999999998</v>
+      </c>
+      <c r="E6" s="42">
+        <f>-66.674713+0.00101</f>
+        <v>-66.673703000000003</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
